--- a/testData/RegisterData.xlsx
+++ b/testData/RegisterData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{241BB5DC-99C7-4B09-8D98-F97DB57A4C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2F177DFB-48CF-41D7-8B1C-348E6BFA5EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A2A9B771-F504-4A38-90F1-798099C2D6A6}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R14"/>
+  <oleSize ref="A1:R23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,10 +99,10 @@
     <t>anna123</t>
   </si>
   <si>
-    <t>sankarsubash</t>
-  </si>
-  <si>
-    <t>annamaria</t>
+    <t>sankar12</t>
+  </si>
+  <si>
+    <t>anna12</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
